--- a/uploads/StaffEnami/StaffEnami.xlsx
+++ b/uploads/StaffEnami/StaffEnami.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/excel/respaldo2/StaffEnami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/StaffEnami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{BADB061D-4765-48D1-91D8-89DA664B13BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B138367-574C-4F1F-9E54-4F7EAFC8A8AD}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{BADB061D-4765-48D1-91D8-89DA664B13BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FDCF24-C23F-497B-815F-32FEB7FC7BB3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C93B954-3C36-4C11-B952-436B86B91917}"/>
   </bookViews>
@@ -96,13 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -113,99 +106,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -214,46 +133,240 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -264,6 +377,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD7E6868-42D2-49F2-99D7-A719B55A238E}" name="Tabla1" displayName="Tabla1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:F10" xr:uid="{DD7E6868-42D2-49F2-99D7-A719B55A238E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{55BBAADB-B2C5-466C-9441-792A4EF8F69E}" name="nombre" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{94AFE534-1C68-4FC3-992F-903355C34EE3}" name="valor" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7BE82EBD-4C3C-434D-8EB2-DCE6123F060D}" name="dotacion" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{402D2C6C-292C-447F-A01F-EF7EC0B9F35C}" name="duracion" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2924CB6B-CF8C-45F3-BB47-901B9AB91672}" name="factor_utilizacion" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{025C0630-002F-4013-8651-23413F5E37EA}" name="categoria" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,22 +714,26 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -615,186 +747,189 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>25</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>25</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>25</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>25</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>14</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>15</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>25</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="4">
         <v>40</v>
       </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
         <v>14</v>
       </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
         <v>229</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>